--- a/excelFile/skillLv.xlsx
+++ b/excelFile/skillLv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,30 @@
   </si>
   <si>
     <t>神厨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talentLv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,147 +451,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>300</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>500</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>600</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>700</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>800</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
